--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Sema4a-Plxnb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H2">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I2">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J2">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N2">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O2">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P2">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q2">
-        <v>5.403089620295779</v>
+        <v>13.68467211940967</v>
       </c>
       <c r="R2">
-        <v>48.627806582662</v>
+        <v>123.162049074687</v>
       </c>
       <c r="S2">
-        <v>0.02120246285079631</v>
+        <v>0.03520931593375234</v>
       </c>
       <c r="T2">
-        <v>0.02120246285079631</v>
+        <v>0.03520931593375234</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H3">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I3">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J3">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.688853</v>
       </c>
       <c r="O3">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P3">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q3">
-        <v>8.221626214182889</v>
+        <v>11.51062763273811</v>
       </c>
       <c r="R3">
-        <v>73.994635927646</v>
+        <v>103.595648694643</v>
       </c>
       <c r="S3">
-        <v>0.03226278604088807</v>
+        <v>0.0296157132140583</v>
       </c>
       <c r="T3">
-        <v>0.03226278604088806</v>
+        <v>0.0296157132140583</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H4">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I4">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J4">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N4">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O4">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P4">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q4">
-        <v>30.83694271046911</v>
+        <v>50.95409666769178</v>
       </c>
       <c r="R4">
-        <v>277.532484394222</v>
+        <v>458.5868700092261</v>
       </c>
       <c r="S4">
-        <v>0.1210083819070659</v>
+        <v>0.1310998810959535</v>
       </c>
       <c r="T4">
-        <v>0.1210083819070659</v>
+        <v>0.1310998810959536</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>6.686327333333334</v>
+        <v>9.361143666666667</v>
       </c>
       <c r="H5">
-        <v>20.058982</v>
+        <v>28.083431</v>
       </c>
       <c r="I5">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218525</v>
       </c>
       <c r="J5">
-        <v>0.1764498904644473</v>
+        <v>0.1965934861218526</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +741,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N5">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O5">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P5">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q5">
-        <v>0.5036164035224445</v>
+        <v>0.2598528666617778</v>
       </c>
       <c r="R5">
-        <v>4.532547631702</v>
+        <v>2.338675799956</v>
       </c>
       <c r="S5">
-        <v>0.001976259665696927</v>
+        <v>0.0006685758780883704</v>
       </c>
       <c r="T5">
-        <v>0.001976259665696927</v>
+        <v>0.0006685758780883704</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>40.136059</v>
       </c>
       <c r="I6">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J6">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N6">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O6">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P6">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q6">
-        <v>10.81105331180211</v>
+        <v>19.55775302456033</v>
       </c>
       <c r="R6">
-        <v>97.29947980621903</v>
+        <v>176.019777221043</v>
       </c>
       <c r="S6">
-        <v>0.04242405222383015</v>
+        <v>0.05032017568176497</v>
       </c>
       <c r="T6">
-        <v>0.04242405222383015</v>
+        <v>0.05032017568176497</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>40.136059</v>
       </c>
       <c r="I7">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J7">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>3.688853</v>
       </c>
       <c r="O7">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P7">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q7">
         <v>16.45066907225856</v>
@@ -883,10 +883,10 @@
         <v>148.056021650327</v>
       </c>
       <c r="S7">
-        <v>0.06455467600706057</v>
+        <v>0.04232595415020778</v>
       </c>
       <c r="T7">
-        <v>0.06455467600706057</v>
+        <v>0.04232595415020778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>40.136059</v>
       </c>
       <c r="I8">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J8">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N8">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O8">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P8">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q8">
-        <v>61.70170310771545</v>
+        <v>72.8221786770349</v>
       </c>
       <c r="R8">
-        <v>555.3153279694391</v>
+        <v>655.3996080933141</v>
       </c>
       <c r="S8">
-        <v>0.2421259242227014</v>
+        <v>0.1873643061120337</v>
       </c>
       <c r="T8">
-        <v>0.2421259242227014</v>
+        <v>0.1873643061120337</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>40.136059</v>
       </c>
       <c r="I9">
-        <v>0.353058954548371</v>
+        <v>0.2809659460057553</v>
       </c>
       <c r="J9">
-        <v>0.3530589545483711</v>
+        <v>0.2809659460057554</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N9">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O9">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P9">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q9">
-        <v>1.007687114188778</v>
+        <v>0.371374494364889</v>
       </c>
       <c r="R9">
-        <v>9.069184027699002</v>
+        <v>3.342370449284001</v>
       </c>
       <c r="S9">
-        <v>0.003954302094778895</v>
+        <v>0.0009555100617489237</v>
       </c>
       <c r="T9">
-        <v>0.003954302094778895</v>
+        <v>0.0009555100617489238</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H10">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I10">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J10">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N10">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O10">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P10">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q10">
-        <v>3.397063593449557</v>
+        <v>11.23431673305433</v>
       </c>
       <c r="R10">
-        <v>30.57357234104601</v>
+        <v>101.108850597489</v>
       </c>
       <c r="S10">
-        <v>0.01333054228294735</v>
+        <v>0.02890479243510104</v>
       </c>
       <c r="T10">
-        <v>0.01333054228294735</v>
+        <v>0.02890479243510103</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H11">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I11">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J11">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>3.688853</v>
       </c>
       <c r="O11">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P11">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q11">
-        <v>5.169151180879779</v>
+        <v>9.44955315655789</v>
       </c>
       <c r="R11">
-        <v>46.522360627918</v>
+        <v>85.045978409021</v>
       </c>
       <c r="S11">
-        <v>0.02028445641009998</v>
+        <v>0.02431277122453894</v>
       </c>
       <c r="T11">
-        <v>0.02028445641009998</v>
+        <v>0.02431277122453893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H12">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I12">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J12">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N12">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O12">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P12">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q12">
-        <v>19.38799145983623</v>
+        <v>41.83033804658023</v>
       </c>
       <c r="R12">
-        <v>174.491923138526</v>
+        <v>376.4730424192221</v>
       </c>
       <c r="S12">
-        <v>0.07608113090232817</v>
+        <v>0.1076253471801295</v>
       </c>
       <c r="T12">
-        <v>0.07608113090232815</v>
+        <v>0.1076253471801295</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.203868666666668</v>
+        <v>7.684952333333334</v>
       </c>
       <c r="H13">
-        <v>12.611606</v>
+        <v>23.054857</v>
       </c>
       <c r="I13">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="J13">
-        <v>0.1109386556745884</v>
+        <v>0.1613917725961189</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N13">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O13">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P13">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q13">
-        <v>0.316636789262889</v>
+        <v>0.2133240301702223</v>
       </c>
       <c r="R13">
-        <v>2.849731103366001</v>
+        <v>1.919916271532</v>
       </c>
       <c r="S13">
-        <v>0.001242526079212862</v>
+        <v>0.0005488617563493868</v>
       </c>
       <c r="T13">
-        <v>0.001242526079212862</v>
+        <v>0.0005488617563493866</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H14">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I14">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J14">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.8080803333333334</v>
+        <v>1.461859</v>
       </c>
       <c r="N14">
-        <v>2.424241</v>
+        <v>4.385577</v>
       </c>
       <c r="O14">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="P14">
-        <v>0.1201613829001973</v>
+        <v>0.1790970628189019</v>
       </c>
       <c r="Q14">
-        <v>11.00989279094344</v>
+        <v>25.13223850866166</v>
       </c>
       <c r="R14">
-        <v>99.08903511849101</v>
+        <v>226.1901465779549</v>
       </c>
       <c r="S14">
-        <v>0.04320432554262344</v>
+        <v>0.06466277876828357</v>
       </c>
       <c r="T14">
-        <v>0.04320432554262345</v>
+        <v>0.06466277876828357</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H15">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I15">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J15">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>3.688853</v>
       </c>
       <c r="O15">
-        <v>0.1828438995114518</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="P15">
-        <v>0.1828438995114517</v>
+        <v>0.1506444277390854</v>
       </c>
       <c r="Q15">
-        <v>16.75323371378922</v>
+        <v>21.13955208616611</v>
       </c>
       <c r="R15">
-        <v>150.779103424103</v>
+        <v>190.255968775495</v>
       </c>
       <c r="S15">
-        <v>0.06574198105340315</v>
+        <v>0.05438998915028038</v>
       </c>
       <c r="T15">
-        <v>0.06574198105340315</v>
+        <v>0.05438998915028038</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H16">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I16">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J16">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.611940333333333</v>
+        <v>5.443148666666667</v>
       </c>
       <c r="N16">
-        <v>13.835821</v>
+        <v>16.329446</v>
       </c>
       <c r="O16">
-        <v>0.6857945991836579</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="P16">
-        <v>0.6857945991836578</v>
+        <v>0.6668577056245659</v>
       </c>
       <c r="Q16">
-        <v>62.83653559389678</v>
+        <v>93.57845765478775</v>
       </c>
       <c r="R16">
-        <v>565.528820345071</v>
+        <v>842.20611889309</v>
       </c>
       <c r="S16">
-        <v>0.2465791621515624</v>
+        <v>0.2407681712364492</v>
       </c>
       <c r="T16">
-        <v>0.2465791621515624</v>
+        <v>0.2407681712364492</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.62475033333333</v>
+        <v>17.19197166666666</v>
       </c>
       <c r="H17">
-        <v>40.874251</v>
+        <v>51.57591499999999</v>
       </c>
       <c r="I17">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762732</v>
       </c>
       <c r="J17">
-        <v>0.3595524993125934</v>
+        <v>0.3610487952762733</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -1485,28 +1485,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.07532033333333334</v>
+        <v>0.02775866666666667</v>
       </c>
       <c r="N17">
-        <v>0.225961</v>
+        <v>0.083276</v>
       </c>
       <c r="O17">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446799</v>
       </c>
       <c r="P17">
-        <v>0.01120011840469304</v>
+        <v>0.003400803817446798</v>
       </c>
       <c r="Q17">
-        <v>1.026220736690111</v>
+        <v>0.4772262108377777</v>
       </c>
       <c r="R17">
-        <v>9.235986630211</v>
+        <v>4.29503589754</v>
       </c>
       <c r="S17">
-        <v>0.00402703056500436</v>
+        <v>0.001227856121260118</v>
       </c>
       <c r="T17">
-        <v>0.004027030565004361</v>
+        <v>0.001227856121260118</v>
       </c>
     </row>
   </sheetData>
